--- a/output.xlsx
+++ b/output.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <x:si>
     <x:t>SearchKeyword</x:t>
   </x:si>
@@ -506,6 +506,267 @@
   </x:si>
   <x:si>
     <x:t>26.28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/01/2023 08:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Amare 376209 03 High Risk Red/Black/White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339,99 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Enzo 2 Clean 377126 04 Puma Black/Rose Gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers X-Ray Speed Sl Wtr Jr 386205 02 Peacoat/White/Red/Pristine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Bmw Mms X-Ray Speed 307174 03 P Black/Strongblue/Fiery Red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers TRC Blaze Minecraft Jr 386125 01 Puma Black/Teal Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459,99 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Carina 2.0 Jr 386185 02 Puma White/White/Silver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ghete Jodhpur Meyze Chelsea Suede Wn's 382829 04 Taffy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>599,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35.89%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers X-Ray Speed 384638 01 Puma Black/Dark Shadow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.93%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Karmen L Jr 387374 01 Puma White/Puma White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers ST Runner V3 Mid L 387638 02 Dark Shadow/Dark Shadow/Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>379,99 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Smash V2 L 365215 06 Puma Black/Puma Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.83%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Carina 2.0 Jr 386185 01 Puma Black/Black/Silver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers POKÉMON Rider Fv Pikachu 387688 01 Empire Yellow/Pale Lemen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>599,99 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers All-Day Active 386269 09 Black/Sunset Pink/Puma White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.97%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 CW7358 002 Black/White/Anthracite/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 Flyease DA6674 001 Black/White/Anthracite/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>445,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 Flyease DA6698 001 Black/White/Anthracite/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Pegasus Trail 2 CK4309 002 Black/Spruce Aura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>542,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 CW7358 700 Barely Volt/Black/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>617,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 CW7356 002 Black/White/Anthracite/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>618,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.89%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 37 BQ9646 102 White/Racer Blue/Cyber/Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.44%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 37 BQ9647 002 Black/White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.35%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 Prm DH6507 111 Summit White/Volt/Black/Aura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.57%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 DO2423 739 University Gold/Black/Orange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>539,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.43%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 CW7358 601 Champagne/White/Barely Rose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zoom Pegasus 38 4E CZ1815 002 Black/White/Anthracite/Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Air Zm Pegasus 37 Shield CQ8639 600 Barely Rose/Flash Crimson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.77%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Runfalcon X FW4714 Grey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.72%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.09%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Astir W GY9549 Ftwwht/Cblack/Cwhite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi AlphaBoost V1 HP6133 Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Eastrial 2.0 RAIN.RDY S24009 Core Black / Grey Five / Blue Rush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Retropy F2 GW5472 Cblack/Cblack/Ftwwht</x:t>
+  </x:si>
+  <x:si>
+    <x:t>506,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Terrex Snowpitch C.Rdy GW9171 Core Black/Purple/Pulse Olive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.00%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pantofi Hyperhiker K GZ9215 Beiton/Sanbei/Cblack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>325,00 Lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.92%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1771,6 +2032,906 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="A62" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="A63" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="A64" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="A65" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="A66" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="A67" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
